--- a/src/main/java/testData/FormTestData.xlsx
+++ b/src/main/java/testData/FormTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1357937\Desktop\Sdet Batch training notes\AdvancedSelenium_Training\Selenium-hands-on\NetAporterWebsite\src\main\java\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1357937\Desktop\Sdet Batch training notes\AdvancedSelenium_Training\Selenium-hands-on\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764757ED-038D-4911-B0D7-ADE4203498C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC6FBA4-83DA-4FED-8CE0-245EA541036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="DropdownNames" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+  <si>
+    <t>noOfRecords</t>
+  </si>
+  <si>
+    <t>lengthofchars</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>@hotmail.com</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -79,18 +91,27 @@
     <t>Description</t>
   </si>
   <si>
-    <t>EOL</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Father,Mother,Brother,Sister,Son,Daughter</t>
+  </si>
+  <si>
+    <t>recordNo</t>
+  </si>
+  <si>
     <t>WorkCode</t>
   </si>
   <si>
+    <t>Languages</t>
+  </si>
+  <si>
     <t>MartialStatus</t>
   </si>
   <si>
@@ -118,88 +139,103 @@
     <t>EmergencyRelationship</t>
   </si>
   <si>
+    <t>New Hire,Part Time,Full Time,Full Time Temp</t>
+  </si>
+  <si>
+    <t>English,Spanish,German,French,Hindi,Japanese,Chinese,Finish</t>
+  </si>
+  <si>
+    <t>Manager,Executive Lead,Associate Engineer</t>
+  </si>
+  <si>
+    <t>PositionDivisions</t>
+  </si>
+  <si>
+    <t>WorkCodes</t>
+  </si>
+  <si>
+    <t>MartialStatuses</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>pasword_correct</t>
-  </si>
-  <si>
-    <t>password_only_numbers</t>
-  </si>
-  <si>
-    <t>password_only_alphabets</t>
-  </si>
-  <si>
-    <t>password_only_lowercase_alphabets</t>
-  </si>
-  <si>
-    <t>password_less_than_eight</t>
-  </si>
-  <si>
-    <t>password_only_uppercase_alphabets</t>
-  </si>
-  <si>
-    <t>password_only_special_characters</t>
-  </si>
-  <si>
-    <t>email_correct</t>
-  </si>
-  <si>
-    <t>tanisha@gmail.com</t>
-  </si>
-  <si>
-    <t>Tanisha@1999</t>
-  </si>
-  <si>
-    <t>Tanisha</t>
-  </si>
-  <si>
-    <t>Trivedi</t>
-  </si>
-  <si>
-    <t>invalid_bdate</t>
-  </si>
-  <si>
-    <t>invalid_bmonth</t>
-  </si>
-  <si>
-    <t>invalid_byear</t>
-  </si>
-  <si>
-    <t>invalid_email</t>
-  </si>
-  <si>
-    <t>tanisha</t>
-  </si>
-  <si>
-    <t>##$</t>
-  </si>
-  <si>
-    <t>TANISHATRIVEDI</t>
-  </si>
-  <si>
-    <t>dumyadmin</t>
-  </si>
-  <si>
-    <t>NetChecking</t>
-  </si>
-  <si>
-    <t>Test#34</t>
+    <t>Titles</t>
+  </si>
+  <si>
+    <t>Mr,Mrs,Ms,Dr,Prof,Adv</t>
+  </si>
+  <si>
+    <t>Single,In Relationships,Married,Divorced,Widowed</t>
+  </si>
+  <si>
+    <t>MobileNoLimit</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>alex@gmail.com</t>
+  </si>
+  <si>
+    <t>phoneNum1</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>NCS</t>
+  </si>
+  <si>
+    <t>CompanyAddress</t>
+  </si>
+  <si>
+    <t>Hinjewadi Phase 1</t>
+  </si>
+  <si>
+    <t>CompanyCity</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>CompanyState</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>PhoneNum2</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>411057</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>EOF</t>
   </si>
 </sst>
 </file>
@@ -529,166 +565,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1999</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2023</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
         <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>872389009</v>
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{194092C7-847E-418E-AFB9-CFFA5C9FFF66}"/>
-    <hyperlink ref="B14" r:id="rId2" display="Test@22" xr:uid="{CF8CAAB6-BC31-4C43-B312-92421A719BDB}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{3AEA8838-D39A-4A80-806C-7AC2A3FDD65A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -709,152 +776,152 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
